--- a/Data/MissionDrivenFinanceCC.xlsx
+++ b/Data/MissionDrivenFinanceCC.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7micGByYz9WaAxD7O8wMrBx4tH35pQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
     </ext>
   </extLst>
 </workbook>
@@ -65,7 +65,7 @@
     <t>Why would you be unable to continue to provide care in this location?</t>
   </si>
   <si>
-    <t>[Free response]</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>Is it your goal to own the location where you currently provide care?</t>
